--- a/data/income_statement/2digits/size/62_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/62_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>62-Computer programming, consultancy and related activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>62-Computer programming, consultancy and related activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,527 +841,597 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1117855.194</v>
+        <v>1121856.14283</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1397398.17198</v>
+        <v>1471830.65225</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2177279.05302</v>
+        <v>2153457.12419</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2717997.68285</v>
+        <v>2773528.74857</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3410816.51552</v>
+        <v>3410649.01273</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4078413.06213</v>
+        <v>4175822.41782</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5143824.28546</v>
+        <v>5317094.029949999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5673091.02254</v>
+        <v>5877570.61657</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>7028002.94029</v>
+        <v>6998557.80422</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>8432138.817299999</v>
+        <v>8370359.809939999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>10580615.01244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11201000.66301</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>18437431.011</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>979388.18988</v>
+        <v>979128.77769</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1235936.42223</v>
+        <v>1284137.76163</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1938446.75995</v>
+        <v>1895969.32359</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2396547.67166</v>
+        <v>2425759.24882</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3016243.47576</v>
+        <v>3029332.93422</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3644421.9729</v>
+        <v>3725178.48761</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4610720.21199</v>
+        <v>4725895.25575</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5209462.93389</v>
+        <v>5331283.68273</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6307417.37908</v>
+        <v>6212285.93294</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>7203468.08682</v>
+        <v>7201151.4626</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>8630412.89604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>9224925.494790001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>14957820.181</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>103654.39858</v>
+        <v>105635.20314</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>135415.70452</v>
+        <v>147709.69739</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>189889.66669</v>
+        <v>182445.98065</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>272378.19327</v>
+        <v>292943.87976</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>330265.59276</v>
+        <v>325933.62656</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>359593.06047</v>
+        <v>376823.75444</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>432870.0869</v>
+        <v>486064.09968</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>363472.7556499999</v>
+        <v>443609.28389</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>594932.2323500001</v>
+        <v>666879.23087</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1007038.25975</v>
+        <v>961005.0146900001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1692381.30855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1727873.52837</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2930346.766</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>34812.60554</v>
+        <v>37092.162</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>26046.04523</v>
+        <v>39983.19323</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>48942.62638</v>
+        <v>75041.81995</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>49071.81792</v>
+        <v>54825.61999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>64307.447</v>
+        <v>55382.45195</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>74398.02876</v>
+        <v>73820.17577</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>100233.98657</v>
+        <v>105134.67452</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>100155.333</v>
+        <v>102677.64995</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>125653.32886</v>
+        <v>119392.64041</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>221632.47073</v>
+        <v>208203.33265</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>257820.80785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>248201.63985</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>549264.064</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>13633.57785</v>
+        <v>14502.76007</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>24109.20633</v>
+        <v>26671.20552</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>18831.60914</v>
+        <v>18552.22158</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>22887.08592</v>
+        <v>22228.40411</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>26792.62476</v>
+        <v>25420.48784</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>79456.03159</v>
+        <v>80458.25387999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>81754.15427</v>
+        <v>79814.56989</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>123023.31771</v>
+        <v>128457.1615</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>175317.04566</v>
+        <v>165325.30771</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>236553.21936</v>
+        <v>238707.86533</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>213434.16253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>242259.78449</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>753588.069</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>11375.2322</v>
+        <v>12500.36017</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>14532.75236</v>
+        <v>17095.18565</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>11430.28394</v>
+        <v>11123.09353</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>12752.8853</v>
+        <v>12744.63116</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>21088.60098</v>
+        <v>22357.85076</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>61225.1668</v>
+        <v>62097.53359000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>71695.64569</v>
+        <v>66740.84213</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>108756.51817</v>
+        <v>114738.85176</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>157030.59683</v>
+        <v>147899.83963</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>201048.85976</v>
+        <v>198150.13921</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>202515.46397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>223438.11812</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>646111.2929999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1280.16587</v>
+        <v>1024.05063</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>8476.800859999999</v>
+        <v>8465.060609999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>5935.36601</v>
+        <v>5853.84346</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>8083.54891</v>
+        <v>8213.14374</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>4739.094690000001</v>
+        <v>2158.90277</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>16398.97175</v>
+        <v>16527.22725</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>9505.022150000001</v>
+        <v>12412.96517</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>13546.59678</v>
+        <v>12799.0258</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>17563.00784</v>
+        <v>16702.02709</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>32462.59494</v>
+        <v>37579.45279</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>8192.52968</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16096.46926</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>100657.772</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>978.1797800000001</v>
+        <v>978.34927</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1099.65311</v>
+        <v>1110.95926</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1465.95919</v>
+        <v>1575.28459</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2050.65171</v>
+        <v>1270.62921</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>964.92909</v>
+        <v>903.7343100000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1831.89304</v>
+        <v>1833.49304</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>553.48643</v>
+        <v>660.7625899999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>720.20276</v>
+        <v>919.2839399999999</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>723.4409899999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3041.76466</v>
+        <v>2978.27333</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2726.16888</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2725.19711</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6819.004</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1104221.61615</v>
+        <v>1107353.38276</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1373288.96565</v>
+        <v>1445159.44673</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2158447.44388</v>
+        <v>2134904.90261</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2695110.59693</v>
+        <v>2751300.34446</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3384023.89076</v>
+        <v>3385228.52489</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3998957.03054</v>
+        <v>4095364.16394</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5062070.131189999</v>
+        <v>5237279.46006</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5550067.70483</v>
+        <v>5749113.45507</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6852685.89463</v>
+        <v>6833232.49651</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>8195585.59794</v>
+        <v>8131651.94461</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>10367180.84991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10958740.87852</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>17683842.942</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>684633.3847899999</v>
+        <v>704813.7661499999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>853702.6688</v>
+        <v>936508.1757500001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1451258.4192</v>
+        <v>1444236.5808</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1772818.71953</v>
+        <v>1803246.78117</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2192802.17897</v>
+        <v>2213211.07933</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2680783.02691</v>
+        <v>2744421.54845</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3211092.82466</v>
+        <v>3374902.85544</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3769730.29972</v>
+        <v>3835960.21798</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4348392.11003</v>
+        <v>4311871.8339</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4790278.042239999</v>
+        <v>4777847.04488</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5852013.62834</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6214186.53952</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10737859.977</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>18485.67163</v>
+        <v>23230.14033</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>23852.95755</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>18107.3094</v>
+        <v>16107.3094</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>53555.75374</v>
+        <v>63741.21974</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>20049.14346</v>
+        <v>19287.52377</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>18987.16628</v>
+        <v>21835.64285</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>45596.02658</v>
+        <v>36311.85672</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>30970.93432</v>
+        <v>37722.57933</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>146073.70784</v>
+        <v>137205.19815</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>105054.04969</v>
+        <v>92466.36206</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>167654.04923</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>175751.58898</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>302653.84</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>243251.79501</v>
+        <v>234299.87763</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>297748.32611</v>
+        <v>305236.89203</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>668773.0117</v>
+        <v>662344.41119</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>756907.04214</v>
+        <v>752466.25962</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>985219.04767</v>
+        <v>990818.9631000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1159616.94808</v>
+        <v>1154461.05005</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1268278.19791</v>
+        <v>1351666.04071</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1828210.1168</v>
+        <v>1872550.43404</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1853435.18037</v>
+        <v>1797649.28703</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1834179.93797</v>
+        <v>1746208.74816</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1876997.12381</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1974758.91189</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5000349.56</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>422380.29423</v>
+        <v>446855.86827</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>531539.33264</v>
+        <v>605823.23794</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>758201.06076</v>
+        <v>759607.82287</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>938157.2069099999</v>
+        <v>962840.58507</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1175123.96621</v>
+        <v>1190923.55299</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1448345.11244</v>
+        <v>1514471.51884</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1890109.51407</v>
+        <v>1979815.87191</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1897273.94531</v>
+        <v>1912808.31962</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2308145.93216</v>
+        <v>2338209.17576</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2780463.7654</v>
+        <v>2825582.76047</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3768270.47332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3971530.16523</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>5313194.64</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>515.62392</v>
+        <v>427.87992</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>562.0525</v>
+        <v>1595.08823</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>6177.03734</v>
@@ -1469,343 +1440,388 @@
         <v>24198.71674</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>12410.02163</v>
+        <v>12181.03947</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>53833.80011</v>
+        <v>53653.33671</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>7109.0861</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>13275.30329</v>
+        <v>12878.88499</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>40737.28965999999</v>
+        <v>38808.17296</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>70580.28918000001</v>
+        <v>113589.17419</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>39091.98198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>92145.87342</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>121661.937</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>419588.23136</v>
+        <v>402539.61661</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>519586.29685</v>
+        <v>508651.27098</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>707189.0246799999</v>
+        <v>690668.32181</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>922291.8774</v>
+        <v>948053.56329</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1191221.71179</v>
+        <v>1172017.44556</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1318174.00363</v>
+        <v>1350942.61549</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1850977.30653</v>
+        <v>1862376.60462</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1780337.40511</v>
+        <v>1913153.23709</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2504293.7846</v>
+        <v>2521360.66261</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3405307.5557</v>
+        <v>3353804.89973</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4515167.22157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4744554.339</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>6945982.965</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>287432.59518</v>
+        <v>274632.78685</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>368237.60068</v>
+        <v>383667.11737</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>491151.09467</v>
+        <v>470971.45076</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>648863.11887</v>
+        <v>640809.65572</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>795417.60846</v>
+        <v>760227.8293099999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>912279.5903200001</v>
+        <v>897767.11074</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1128347.22411</v>
+        <v>1121814.3346</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1164399.40378</v>
+        <v>1239345.70781</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1616429.36423</v>
+        <v>1607656.95938</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2110494.00673</v>
+        <v>2120780.99904</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2656375.16597</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2745600.96857</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3451278.765</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>52181.07476</v>
+        <v>53641.17916</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>77431.04767</v>
+        <v>75266.91858</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>110797.95425</v>
+        <v>102737.9101</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>130294.26859</v>
+        <v>134712.4784</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>196587.10318</v>
+        <v>188389.19386</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>220373.97837</v>
+        <v>209268.84902</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>285600.40614</v>
+        <v>292497.11261</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>324035.85263</v>
+        <v>332640.52472</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>426301.04338</v>
+        <v>437499.16538</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>690787.7966</v>
+        <v>671646.16663</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>809002.15117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>872906.58962</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1026883.776</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>72095.70415000001</v>
+        <v>66640.46272</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>80593.98456999999</v>
+        <v>82815.62598</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>110648.80094</v>
+        <v>106293.39112</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>150234.20028</v>
+        <v>147880.44484</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>184682.30489</v>
+        <v>189346.32712</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>223678.53831</v>
+        <v>225619.06841</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>276629.37328</v>
+        <v>279956.09139</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>260493.65975</v>
+        <v>328936.39059</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>394343.89899</v>
+        <v>382667.65945</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>458928.53766</v>
+        <v>472253.55621</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>612870.8468099999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>655851.0444700001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>887976.177</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>163155.81627</v>
+        <v>154351.14497</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>210212.56844</v>
+        <v>225584.57281</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>269704.33948</v>
+        <v>261940.14954</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>368334.65</v>
+        <v>358216.73248</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>414148.20039</v>
+        <v>382492.30833</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>468227.07364</v>
+        <v>462879.19331</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>566117.44469</v>
+        <v>549361.1306</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>579869.8914</v>
+        <v>577768.7925</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>795784.42186</v>
+        <v>787490.13455</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>960777.67247</v>
+        <v>976881.2762000001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1234502.16799</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1216843.33448</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1536418.812</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>132155.63618</v>
+        <v>127906.82976</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>151348.69617</v>
+        <v>124984.15361</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>216037.93001</v>
+        <v>219696.87105</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>273428.75853</v>
+        <v>307243.90757</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>395804.10333</v>
+        <v>411789.61625</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>405894.41331</v>
+        <v>453175.50475</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>722630.08242</v>
+        <v>740562.2700199999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>615938.00133</v>
+        <v>673807.52928</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>887864.4203699999</v>
+        <v>913703.70323</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1294813.54897</v>
+        <v>1233023.90069</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1858792.0556</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1998953.37043</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3494704.2</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>61128.30228</v>
+        <v>63870.60688</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>84593.49218</v>
+        <v>162651.34445</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>99857.24520999999</v>
+        <v>106869.67914</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>99787.61617000001</v>
+        <v>117112.4149</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>156081.82574</v>
+        <v>177625.51335</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>236432.01185</v>
+        <v>252445.9618</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>422092.52539</v>
+        <v>394254.23699</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>307265.43861</v>
+        <v>309512.14797</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>447292.24624</v>
+        <v>477085.14389</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1400771.1771</v>
+        <v>1462679.02102</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>785802.87563</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>967708.8146</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1769652.781</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>5724.55786</v>
+        <v>3379.68688</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>8746.406279999999</v>
+        <v>6013.76274</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>6348.24504</v>
+        <v>5569.80496</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>9861.617749999999</v>
+        <v>14417.77768</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>16452.64004</v>
+        <v>3547.73757</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>9309.93657</v>
+        <v>1044.59979</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>17014.49221</v>
+        <v>3126.31682</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>12213.11047</v>
+        <v>1749.64557</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>23946.46653</v>
+        <v>4854.19103</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>15315.34148</v>
+        <v>24118.2871</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>15560.90245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>66365.57378000001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>802.519</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>3.33644</v>
@@ -1817,268 +1833,303 @@
         <v>152.77073</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>15433.40805</v>
+        <v>4889.69068</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>11050.14364</v>
+        <v>5746.665019999999</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>10810.02678</v>
+        <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>24592.91991</v>
+        <v>1875.38881</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>19437.70094</v>
+        <v>12639.94475</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>23320.57206</v>
+        <v>15317.49716</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>22426.90918</v>
+        <v>11308.92389</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2238.5883</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>18066.04961</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>34385.238</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>10566.86957</v>
+        <v>12446.14069</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>14103.64398</v>
+        <v>13543.98623</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>16008.93783</v>
+        <v>18227.03195</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>20861.15567</v>
+        <v>21081.14509</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>23382.82199</v>
+        <v>18739.01774</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>28555.68219</v>
+        <v>28371.6284</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>41350.13449</v>
+        <v>40382.32279999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>42284.57022</v>
+        <v>41397.95371</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>63339.47193</v>
+        <v>57518.31001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>120542.94746</v>
+        <v>119253.29518</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>161457.80153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>208022.76579</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>163464.547</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>705.85925</v>
+        <v>688.12693</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>3206.5285</v>
+        <v>3171.68003</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1728.04184</v>
+        <v>1612.24493</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>1272.29634</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1138.57783</v>
+        <v>1105.83109</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>4695.56331</v>
+        <v>4635.48306</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2446.73553</v>
+        <v>2501.09763</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>18087.96312</v>
+        <v>18045.44115</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>8766.19772</v>
+        <v>8549.951779999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>6007.20604</v>
+        <v>6025.50638</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>8596.921829999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>8588.2559</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>18612.423</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>2360.10228</v>
+        <v>2013.3713</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2233.7686</v>
+        <v>2231.7077</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1502.52756</v>
+        <v>1417.27963</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>3010.74422</v>
+        <v>1779.39563</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1448.98529</v>
+        <v>838.07421</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1945.83473</v>
+        <v>1770.36458</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>6882.47916</v>
+        <v>6871.40396</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3025.08646</v>
+        <v>5302.3433</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>4642.464559999999</v>
+        <v>4628.23788</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4874.50772</v>
+        <v>4522.5824</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>8556.87293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>8665.566349999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>6048.916</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1594.52173</v>
+        <v>2104.57658</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>843.64279</v>
+        <v>1244.8781</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>878.36912</v>
+        <v>1262.87894</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>966.98119</v>
+        <v>763.66453</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1068.58644</v>
+        <v>1851.1099</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1847.79415</v>
+        <v>3566.70514</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>8239.265380000001</v>
+        <v>3418.30597</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>4528.18125</v>
+        <v>3859.24001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>5228.99953</v>
+        <v>4673.42482</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>64514.42121</v>
+        <v>32393.79752</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>21243.35633</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>17345.54404</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>14914.726</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>31624.23507</v>
+        <v>34780.27705</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>45618.40924</v>
+        <v>124134.41626</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>64351.12925</v>
+        <v>70521.12172</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>40489.21284</v>
+        <v>65334.95321</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>89623.39579000001</v>
+        <v>133283.65024</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>160227.61286</v>
+        <v>191930.09681</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>303957.92777</v>
+        <v>320664.7846</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>171656.45403</v>
+        <v>187247.21583</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>282061.89985</v>
+        <v>299891.30871</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1094521.22575</v>
+        <v>1194096.78554</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>486805.60807</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>553825.85964</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1451206.954</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>30.11422</v>
+        <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>48.1716</v>
+        <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>87.69767999999999</v>
+        <v>59.00398999999999</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>80.43200999999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>140.77381</v>
+        <v>118.79978</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>48.48455999999999</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>121.8579</v>
+        <v>76.35121000000001</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>788.68456</v>
+        <v>81.13667</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>108.66225</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>3422.0344</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>537.39676</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>308.677</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.008029999999999999</v>
@@ -2105,292 +2156,332 @@
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>0</v>
+        <v>416.33196</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>231.56653</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>392.15253</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>8518.697830000001</v>
+        <v>8455.082980000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>9841.092789999999</v>
+        <v>12310.91339</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>8839.052240000001</v>
+        <v>8106.54628</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>7804.50243</v>
+        <v>7514.48775</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>11836.24271</v>
+        <v>12432.99557</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>18898.78745</v>
+        <v>21008.28424</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>17560.08638</v>
+        <v>15366.13184</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>35910.51422</v>
+        <v>39194.01244</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>35197.4895</v>
+        <v>81154.75387</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>72459.95601000001</v>
+        <v>70851.18076</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>77689.22326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>85899.6502</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>79908.781</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>42943.58721</v>
+        <v>45663.36525</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>51189.33328</v>
+        <v>114202.6127</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>62478.09265999999</v>
+        <v>136448.9911</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>62394.15472999999</v>
+        <v>84105.30511</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>93661.99785</v>
+        <v>140683.79206</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>174493.50137</v>
+        <v>204949.93039</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>284534.10801</v>
+        <v>309610.59185</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>166196.1741</v>
+        <v>173284.79196</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>291889.35412</v>
+        <v>305360.79898</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1045940.96574</v>
+        <v>1082215.53097</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>430059.5036</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>527050.55629</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1440364.712</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1918.24137</v>
+        <v>1405.2545</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1458.1854</v>
+        <v>1394.48822</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1372.98585</v>
+        <v>1439.24665</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3543.39757</v>
+        <v>3504.13202</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1787.96185</v>
+        <v>1621.91592</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>8620.14321</v>
+        <v>8616.764810000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>5246.11647</v>
+        <v>5848.273349999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>8318.728789999999</v>
+        <v>8345.429620000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>5707.49012</v>
+        <v>5529.46592</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>25815.61799</v>
+        <v>6755.48333</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>9894.32857</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>8524.12342</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>28922.151</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>9338.455890000001</v>
+        <v>8761.194039999998</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>4261.695559999999</v>
+        <v>6015.692230000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2710.21744</v>
+        <v>13381.76264</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>5076.29106</v>
+        <v>4495.85811</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>5716.789330000001</v>
+        <v>5909.16016</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>4309.39133</v>
+        <v>3895.92784</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>10027.73898</v>
+        <v>10025.43005</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>13625.24527</v>
+        <v>13228.96517</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>10128.99791</v>
+        <v>6514.60813</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>18382.81773</v>
+        <v>17722.55017</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>20816.53477</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>35697.71967</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>29167.28</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>2.37837</v>
+        <v>685.98223</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>124.53007</v>
+        <v>241.86798</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>304.27157</v>
+        <v>1146.3712</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1116.86676</v>
+        <v>105.0717</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>157.76402</v>
+        <v>157.73122</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>26.20395</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1615.33523</v>
+        <v>373.86939</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>4154.62236</v>
+        <v>4022.32793</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>556.89473</v>
+        <v>544.77396</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>10029.67752</v>
+        <v>8690.73784</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>5070.52742</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>3943.19496</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3049.058</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>29310.97021</v>
+        <v>33498.76366</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>41986.70975</v>
+        <v>102005.49506</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>55776.84969</v>
+        <v>117920.72346</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>47180.24563</v>
+        <v>70529.84286</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>82124.95212999999</v>
+        <v>129643.45145</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>159086.93305</v>
+        <v>190613.30388</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>262912.01229</v>
+        <v>289960.35852</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>134521.93304</v>
+        <v>141942.26623</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>263813.57473</v>
+        <v>280853.04927</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>972386.60852</v>
+        <v>1035138.6664</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>373568.96283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>458566.90305</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1333669.49</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>14.20392</v>
+        <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0</v>
+        <v>53.52088</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>50.97916</v>
+        <v>305.88334</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>128.28359</v>
+        <v>78.44450000000001</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>142.34671</v>
+        <v>123.37542</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>49.53707</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>159.67005</v>
+        <v>140.18215</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>91.5757</v>
+        <v>29.10871</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>131.32542</v>
+        <v>106.96028</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>308.94065</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>301.29564</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>207.84962</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>174.748</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.02319</v>
@@ -2411,7 +2502,7 @@
         <v>0.01315</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>157.88055</v>
+        <v>2.93169</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2425,137 +2516,157 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2359.31426</v>
+        <v>1312.14763</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3358.2125</v>
+        <v>4491.54833</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2254.70422</v>
+        <v>2246.91908</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5341.27239</v>
+        <v>5384.15819</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3718.63794</v>
+        <v>3214.61202</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2401.27961</v>
+        <v>1748.17969</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4415.35444</v>
+        <v>3259.5467</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5484.06894</v>
+        <v>5716.6943</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>11551.04591</v>
+        <v>11811.91612</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>19017.30333</v>
+        <v>13599.15258</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>20407.85437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>20110.76557</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>45381.985</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>16731.58582</v>
+        <v>15655.3013</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>25904.57643</v>
+        <v>38853.64465</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>23173.92481</v>
+        <v>20666.64567</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>18009.64824</v>
+        <v>17320.46659</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>29703.76754</v>
+        <v>23032.70965</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>37012.61794</v>
+        <v>32589.89764</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>43063.43361</v>
+        <v>51378.69492</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>53059.15565</v>
+        <v>48839.08192</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>83081.43262000001</v>
+        <v>68603.57815</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>148695.37161</v>
+        <v>154328.60563</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>144923.91397</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>170762.94966</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>176046.916</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>15565.14851</v>
+        <v>15559.2617</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>24805.67523</v>
+        <v>38626.44684</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>20728.50196</v>
+        <v>20339.79159</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>17879.23732</v>
+        <v>17190.05567</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>28154.2059</v>
+        <v>21483.14801</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>36730.31686</v>
+        <v>32314.319</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>42643.77995</v>
+        <v>51162.74525</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>51370.50407</v>
+        <v>47638.73151</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>80760.65468000001</v>
+        <v>66107.90884</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>138770.8813</v>
+        <v>144404.11532</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>140053.84727</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>167724.01964</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>172201.644</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1166.43731</v>
+        <v>96.03960000000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1098.9012</v>
+        <v>227.19781</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2445.42285</v>
+        <v>326.85408</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>130.41092</v>
@@ -2564,226 +2675,256 @@
         <v>1549.56164</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>282.30108</v>
+        <v>275.57864</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>419.65366</v>
+        <v>215.94967</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1688.65158</v>
+        <v>1200.35041</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2320.77794</v>
+        <v>2495.66931</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>9924.490310000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>4870.0667</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3038.93002</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3845.272</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>133608.76543</v>
+        <v>130458.77009</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>158848.27864</v>
+        <v>134579.24071</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>230243.15775</v>
+        <v>169450.91342</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>292812.57173</v>
+        <v>322930.55077</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>428520.16368</v>
+        <v>425698.62789</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>430820.30585</v>
+        <v>468081.63852</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>817125.06619</v>
+        <v>773827.2202400001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>703948.11019</v>
+        <v>761195.80337</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>960185.8798700001</v>
+        <v>1016824.46999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1500948.38872</v>
+        <v>1459158.78511</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2069611.51366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2268848.67908</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3647945.353</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>11885.97004</v>
+        <v>11624.56524</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>14928.62178</v>
+        <v>39202.07278</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>26821.29874</v>
+        <v>16409.6568</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>20227.22495</v>
+        <v>18701.37656</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>24048.30558</v>
+        <v>27140.64209</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>27730.6319</v>
+        <v>30862.39364</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>22990.5592</v>
+        <v>22066.18825</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>45749.33271</v>
+        <v>39158.19579999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>42040.84033</v>
+        <v>38273.44641</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>63110.33033</v>
+        <v>62916.98497</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>89608.47242000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>92887.06329000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>129911.167</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>2614.52521</v>
+        <v>2610.18374</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>178.23188</v>
+        <v>20087.91535</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>279.18163</v>
+        <v>220.43668</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>476.7381</v>
+        <v>476.42679</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>397.67783</v>
+        <v>396.08777</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1069.14107</v>
+        <v>1023.11489</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>529.80692</v>
+        <v>403.45796</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>712.15891</v>
+        <v>665.1615899999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>607.09288</v>
+        <v>619.7347199999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>2190.07786</v>
+        <v>2295.06353</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4548.581190000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5122.77452</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1665.161</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>9271.44483</v>
+        <v>9014.3815</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>14750.3899</v>
+        <v>19114.15743</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>26542.11711</v>
+        <v>16189.22012</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>19750.48685</v>
+        <v>18224.94977</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>23650.62775</v>
+        <v>26744.55432</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>26661.49083</v>
+        <v>29839.27875</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>22460.75228</v>
+        <v>21662.73029</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>45037.1738</v>
+        <v>38493.03421</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>41433.74745</v>
+        <v>37653.71169</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>60920.25247</v>
+        <v>60621.92144</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>85059.89123000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>87764.28877</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>128246.006</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>10787.27808</v>
+        <v>12791.73753</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>15554.52054</v>
+        <v>28729.85457</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>127274.4269</v>
+        <v>279180.30673</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>21203.87147</v>
+        <v>19900.80077</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>20916.76446</v>
+        <v>25470.07156</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>67096.54483</v>
+        <v>64442.19773</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>27324.35684</v>
+        <v>20817.9664</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>140537.1568</v>
+        <v>129130.97547</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>59956.60137</v>
+        <v>53441.21440999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>248948.41714</v>
+        <v>233519.60442</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>81574.16747</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>86507.65179999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>105784.533</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>138.02172</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>38.87816</v>
@@ -2792,7 +2933,7 @@
         <v>22.03993</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1071.12251</v>
+        <v>51.36867</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>17.92026</v>
@@ -2801,7 +2942,7 @@
         <v>162.38681</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3161.01178</v>
+        <v>17.93053</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>31.83717</v>
@@ -2810,208 +2951,236 @@
         <v>18.37726</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1932.00256</v>
+        <v>1006.42888</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>4407.489509999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4162.718879999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1604.728</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3973.81058</v>
+        <v>6695.39327</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3802.33679</v>
+        <v>15100.76857</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>4943.74191</v>
+        <v>170508.40892</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3962.27781</v>
+        <v>4673.48898</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4774.57369</v>
+        <v>6583.883519999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3795.70297</v>
+        <v>3226.56797</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2160.15074</v>
+        <v>1657.4568</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3887.72875</v>
+        <v>5979.59693</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3996.93291</v>
+        <v>4029.3139</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>8792.865300000001</v>
+        <v>6304.07033</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>7866.84135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4360.93124</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>17876.284</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6675.44578</v>
+        <v>6096.34426</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>11713.30559</v>
+        <v>13590.20784</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>122308.64506</v>
+        <v>108649.85788</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>16170.47115</v>
+        <v>15175.94312</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>16124.27051</v>
+        <v>18868.26778</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>63138.45505</v>
+        <v>61053.24295</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>22003.19432</v>
+        <v>19142.57907</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>136617.59088</v>
+        <v>123119.54137</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>55941.2912</v>
+        <v>49393.52325</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>238223.54928</v>
+        <v>226209.10521</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>69299.83661</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>77984.00168</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>86303.52099999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>134707.45739</v>
+        <v>129291.5978</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>158222.37988</v>
+        <v>145051.45892</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>129790.02959</v>
+        <v>-93319.73651</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>291835.92521</v>
+        <v>321731.12656</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>431651.7048</v>
+        <v>427369.19842</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>391454.39292</v>
+        <v>434501.83443</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>812791.2685499999</v>
+        <v>775075.44209</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>609160.2861</v>
+        <v>671223.0237</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>942270.1188300001</v>
+        <v>1001656.70199</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1315110.30191</v>
+        <v>1288556.16566</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2077645.81861</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2275228.09057</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3672071.987</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>12766.86405</v>
+        <v>13441.34701</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>15076.86853</v>
+        <v>14933.4611</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>23928.35451</v>
+        <v>24183.86563</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>24475.56975</v>
+        <v>26295.80366</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>41262.95078</v>
+        <v>40914.16152</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>40600.22504999999</v>
+        <v>44247.72189</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>72087.00048999999</v>
+        <v>69855.78072</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>67696.86603</v>
+        <v>75577.08262</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>89001.76375</v>
+        <v>88763.6525</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>135788.58642</v>
+        <v>128769.524</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>169253.16718</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>173247.51209</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>307765.493</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>121940.59334</v>
+        <v>115850.25079</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>143145.51135</v>
+        <v>130117.99782</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>105861.67508</v>
+        <v>-117503.60214</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>267360.35546</v>
+        <v>295435.3229</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>390388.75402</v>
+        <v>386455.0368999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>350854.16787</v>
+        <v>390254.11254</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>740704.2680599999</v>
+        <v>705219.66137</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>541463.4200700001</v>
+        <v>595645.94108</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>853268.35508</v>
+        <v>912893.04949</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1179321.71549</v>
+        <v>1159786.64166</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1908392.65143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2101980.57848</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3364306.494</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>480</v>
+        <v>359</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>348</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>